--- a/src/main/resources/Data Stroge/TestData.xlsx
+++ b/src/main/resources/Data Stroge/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0d7a92deb9e4f68/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F24B0572-9A78-4BE0-AB1A-AA8AC4E5B76C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{F24B0572-9A78-4BE0-AB1A-AA8AC4E5B76C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{11F5572F-040B-4F98-89B6-3D8AA002997D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Banking</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>ITC</t>
+  </si>
+  <si>
+    <t>Monisha</t>
+  </si>
+  <si>
+    <t>Sahai</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>987654</t>
   </si>
 </sst>
 </file>
@@ -418,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -477,12 +489,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
